--- a/api-gateway/files/results.xlsx
+++ b/api-gateway/files/results.xlsx
@@ -8,9 +8,229 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Poll 1" sheetId="2" r:id="rId4"/>
+    <sheet name="Poll 2" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>Ismi</t>
+  </si>
+  <si>
+    <t>Familiyasi</t>
+  </si>
+  <si>
+    <t>Jinsi</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Telefon raqami</t>
+  </si>
+  <si>
+    <t>Ish tajribasi</t>
+  </si>
+  <si>
+    <t>Darajasi</t>
+  </si>
+  <si>
+    <t>So'rovnoma raqami</t>
+  </si>
+  <si>
+    <t>Jami natijalar</t>
+  </si>
+  <si>
+    <t>1 - savol</t>
+  </si>
+  <si>
+    <t>2 - savol</t>
+  </si>
+  <si>
+    <t>3 - savol</t>
+  </si>
+  <si>
+    <t>4 - savol</t>
+  </si>
+  <si>
+    <t>5 - savol</t>
+  </si>
+  <si>
+    <t>6 - savol</t>
+  </si>
+  <si>
+    <t>7 - savol</t>
+  </si>
+  <si>
+    <t>8 - savol</t>
+  </si>
+  <si>
+    <t>9 - savol</t>
+  </si>
+  <si>
+    <t>10 - savol</t>
+  </si>
+  <si>
+    <t>11 - savol</t>
+  </si>
+  <si>
+    <t>12 - savol</t>
+  </si>
+  <si>
+    <t>13 - savol</t>
+  </si>
+  <si>
+    <t>14 - savol</t>
+  </si>
+  <si>
+    <t>15 - savol</t>
+  </si>
+  <si>
+    <t>16 - savol</t>
+  </si>
+  <si>
+    <t>17 - savol</t>
+  </si>
+  <si>
+    <t>18 - savol</t>
+  </si>
+  <si>
+    <t>19 - savol</t>
+  </si>
+  <si>
+    <t>20 - savol</t>
+  </si>
+  <si>
+    <t>21 - savol</t>
+  </si>
+  <si>
+    <t>22 - savol</t>
+  </si>
+  <si>
+    <t>23 - savol</t>
+  </si>
+  <si>
+    <t>24 - savol</t>
+  </si>
+  <si>
+    <t>25 - savol</t>
+  </si>
+  <si>
+    <t>26 - savol</t>
+  </si>
+  <si>
+    <t>27 - savol</t>
+  </si>
+  <si>
+    <t>28 - savol</t>
+  </si>
+  <si>
+    <t>29 - savol</t>
+  </si>
+  <si>
+    <t>30 - savol</t>
+  </si>
+  <si>
+    <t>31 - savol</t>
+  </si>
+  <si>
+    <t>32 - savol</t>
+  </si>
+  <si>
+    <t>33 - savol</t>
+  </si>
+  <si>
+    <t>34 - savol</t>
+  </si>
+  <si>
+    <t>35 - savol</t>
+  </si>
+  <si>
+    <t>36 - savol</t>
+  </si>
+  <si>
+    <t>37 - savol</t>
+  </si>
+  <si>
+    <t>38 - savol</t>
+  </si>
+  <si>
+    <t>39 - savol</t>
+  </si>
+  <si>
+    <t>40 - savol</t>
+  </si>
+  <si>
+    <t>41 - savol</t>
+  </si>
+  <si>
+    <t>42 - savol</t>
+  </si>
+  <si>
+    <t>43 - savol</t>
+  </si>
+  <si>
+    <t>44 - savol</t>
+  </si>
+  <si>
+    <t>45 - savol</t>
+  </si>
+  <si>
+    <t>46 - savol</t>
+  </si>
+  <si>
+    <t>47 - savol</t>
+  </si>
+  <si>
+    <t>48 - savol</t>
+  </si>
+  <si>
+    <t>49 - savol</t>
+  </si>
+  <si>
+    <t>50 - savol</t>
+  </si>
+  <si>
+    <t>51 - savol</t>
+  </si>
+  <si>
+    <t>52 - savol</t>
+  </si>
+  <si>
+    <t>53 - savol</t>
+  </si>
+  <si>
+    <t>54 - savol</t>
+  </si>
+  <si>
+    <t>55 - savol</t>
+  </si>
+  <si>
+    <t>56 - savol</t>
+  </si>
+  <si>
+    <t>57 - savol</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>wjwxjbufhwttsemptq@nbmbb.com</t>
+  </si>
+  <si>
+    <t>1 - so'rovnoma</t>
+  </si>
+  <si>
+    <t>2 - so'rovnoma</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -319,4 +539,526 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2">
+        <v>114</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>2</v>
+      </c>
+      <c r="AA2">
+        <v>3</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>2</v>
+      </c>
+      <c r="AD2">
+        <v>3</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>2</v>
+      </c>
+      <c r="AG2">
+        <v>3</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>2</v>
+      </c>
+      <c r="AJ2">
+        <v>3</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>2</v>
+      </c>
+      <c r="AM2">
+        <v>3</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>2</v>
+      </c>
+      <c r="AP2">
+        <v>3</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>2</v>
+      </c>
+      <c r="AS2">
+        <v>3</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>2</v>
+      </c>
+      <c r="AV2">
+        <v>3</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>2</v>
+      </c>
+      <c r="AY2">
+        <v>3</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>2</v>
+      </c>
+      <c r="BB2">
+        <v>3</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>2</v>
+      </c>
+      <c r="BE2">
+        <v>3</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>2</v>
+      </c>
+      <c r="BH2">
+        <v>3</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>2</v>
+      </c>
+      <c r="BK2">
+        <v>3</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>2</v>
+      </c>
+      <c r="BN2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/api-gateway/files/results.xlsx
+++ b/api-gateway/files/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Ismi</t>
   </si>
@@ -53,9 +53,6 @@
     <t>1 - savol</t>
   </si>
   <si>
-    <t>2 - savol</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -65,10 +62,16 @@
     <t>31</t>
   </si>
   <si>
-    <t/>
+    <t>ozbek</t>
   </si>
   <si>
     <t>farruhbekturdiqulov@gmail.com</t>
+  </si>
+  <si>
+    <t>+321456987123</t>
+  </si>
+  <si>
+    <t>juniyor</t>
   </si>
   <si>
     <t>1 - so'rovnoma</t>
@@ -428,49 +431,43 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>25</v>
       </c>
       <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/api-gateway/files/results.xlsx
+++ b/api-gateway/files/results.xlsx
@@ -8,14 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Poll 1" sheetId="2" r:id="rId4"/>
+    <sheet name="Poll 6" sheetId="2" r:id="rId4"/>
+    <sheet name="Poll 7" sheetId="3" r:id="rId6"/>
+    <sheet name="Poll 8" sheetId="4" r:id="rId7"/>
+    <sheet name="Poll 1" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Ismi</t>
   </si>
@@ -53,10 +56,37 @@
     <t>1 - savol</t>
   </si>
   <si>
+    <t>2 - savol</t>
+  </si>
+  <si>
+    <t>3 - savol</t>
+  </si>
+  <si>
+    <t>4 - savol</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>male</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>string@gmail.com</t>
+  </si>
+  <si>
+    <t>junior</t>
+  </si>
+  <si>
+    <t>6 - so'rovnoma</t>
+  </si>
+  <si>
+    <t>7 - so'rovnoma</t>
+  </si>
+  <si>
+    <t>8 - so'rovnoma</t>
   </si>
   <si>
     <t>31</t>
@@ -431,37 +461,316 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K2">
         <v>25</v>
